--- a/examples/ex2.xlsx
+++ b/examples/ex2.xlsx
@@ -14,33 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>foo</t>
   </si>
 </sst>
 </file>
@@ -398,99 +374,815 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.204707659484713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.4789433380575482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+        <v>-0.5194387150567381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-0.55573030434749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.965780572502714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.39340583297299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.09290787674371767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.2817461528302025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.7690225676118387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="B11">
+        <v>1.246434736386282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="B12">
+        <v>1.007189357583005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="B13">
+        <v>-1.296221109112264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
+      <c r="B14">
+        <v>0.274991633432124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.2289128789353159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.35291683516545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.8864293405915888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-2.001637309660397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.3718425371402544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.669025309524871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.4385697358355719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-0.5397414455216628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.4769850104122995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3.248943919430755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-1.021227524355597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-0.5770873030407672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.1241212756734077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.3026135619125114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.5237720681504165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.0009402777753328851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.343809793614132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-0.7135439850963832</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-0.831153538853914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-2.370231653956745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-1.860760788550735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-0.8607573984317486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.5601452930280342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-1.265934491693693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.1198271246605513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-1.063512448053541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.3328827156076713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-2.359418807383681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-0.1995429553356675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-1.541995527874112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-0.9707359122591825</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-1.307030250970897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.2863497470141551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.3779841109373773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-0.7538865347898971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.3312856501945191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1.349742214498785</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.06987668883075149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.246674109982228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>-0.01186160107108216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1.00481159078708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1.327194613785634</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>-0.9192615577450494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-1.549106438284449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.0221845986581725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.7583631450155793</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-0.6605243277245674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.862580082530047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>-0.01003190208874519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.05000935590418329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.6702155943502536</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.8529650322400435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>-0.9558688522944143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>-0.02349332069183079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>-2.304233878797142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>-0.6524688414608951</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-1.218301976581139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-1.332609707683323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1.074622690094981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.7236415052979249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.6900018528091594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1.001543442493789</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>-0.5030873913603446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>-0.6222742250596455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>-0.9211686080130108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>-0.726213492660829</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.2228955458351768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.05131610092088799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>-1.157719466312724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.816706935890623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.4336096056541214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1.010736946003613</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1.824875211346031</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>-0.9975182477104551</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.850591098736913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>-0.1315776012120293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.9124141520423159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.1882106804362268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>2.169461437689954</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>-0.114928204582842</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>2.003697362416536</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.02961015231428509</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.7952531558613249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.1181097536905498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>-0.7485315484917335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.5849697378523505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.1526765727999654</v>
       </c>
     </row>
   </sheetData>
